--- a/Assets/StreamingAssets/StoryScript23.xlsx
+++ b/Assets/StreamingAssets/StoryScript23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029DB1EE-D51D-5444-B374-DEA08F3F47A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DFFA45-8494-3940-A644-F631057913C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -351,12 +351,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>It leaves behind a strong floral scent that lingers for a long time.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>History17</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It leaves behind a strong &lt;color=#FFCC000&gt;floral scent&lt;/color&gt; that lingers for a long time.</t>
   </si>
 </sst>
 </file>
@@ -763,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1524,7 +1523,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="M35" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>17</v>
@@ -1535,7 +1534,7 @@
         <v>18</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
         <v>34</v>

--- a/Assets/StreamingAssets/StoryScript23.xlsx
+++ b/Assets/StreamingAssets/StoryScript23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DFFA45-8494-3940-A644-F631057913C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B812DE42-7DF1-6946-9AE9-6E74EF814EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -355,7 +355,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>It leaves behind a strong &lt;color=#FFCC000&gt;floral scent&lt;/color&gt; that lingers for a long time.</t>
+    <t>It leaves behind a strong &lt;color=#FFCC00&gt;floral scent&lt;/color&gt; that lingers for a long time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -763,7 +764,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
